--- a/datasets_single/meropenem_drug_mic.xlsx
+++ b/datasets_single/meropenem_drug_mic.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets_single/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E090387B-2487-3D47-9C54-DF904AC4A7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E114FE70-9858-7848-873F-92693356DED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5500" yWindow="4640" windowWidth="26840" windowHeight="15940" xr2:uid="{DE791153-5A0F-C045-B3A8-5A14B19EAA60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="9">
   <si>
     <t>drug</t>
   </si>
@@ -432,7 +432,7 @@
   <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110:D144"/>
+      <selection activeCell="A2" sqref="A2:A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,6 +480,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -499,6 +502,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -518,6 +524,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -537,6 +546,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -556,6 +568,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -575,6 +590,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
@@ -594,6 +612,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -613,6 +634,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -632,6 +656,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -651,6 +678,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
@@ -670,6 +700,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
@@ -689,6 +722,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
@@ -708,6 +744,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -727,6 +766,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -745,7 +787,10 @@
         <v>49.875</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -764,7 +809,10 @@
         <v>99.75</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -783,7 +831,10 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
@@ -802,7 +853,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
@@ -821,7 +875,10 @@
         <v>4.9874999999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
@@ -840,7 +897,10 @@
         <v>9.9749999999999996</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
       <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
@@ -859,7 +919,10 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>6</v>
       </c>
@@ -878,7 +941,10 @@
         <v>49.875</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
       <c r="B24" s="2" t="s">
         <v>6</v>
       </c>
@@ -897,7 +963,10 @@
         <v>99.75</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -916,7 +985,10 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
       <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
@@ -935,7 +1007,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
@@ -954,7 +1029,10 @@
         <v>4.9874999999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
       <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
@@ -973,7 +1051,10 @@
         <v>9.9749999999999996</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
@@ -992,7 +1073,10 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1011,7 +1095,10 @@
         <v>49.875</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
       <c r="B31" s="2" t="s">
         <v>6</v>
       </c>
@@ -1030,7 +1117,10 @@
         <v>99.75</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1049,7 +1139,10 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1068,7 +1161,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
       <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
@@ -1087,7 +1183,10 @@
         <v>4.9874999999999998</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1205,10 @@
         <v>9.9749999999999996</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1227,10 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
@@ -1144,7 +1249,10 @@
         <v>99.75</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
       <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
@@ -1163,7 +1271,10 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1182,7 +1293,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
       <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
@@ -1201,7 +1315,10 @@
         <v>4.9874999999999998</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
@@ -1220,7 +1337,10 @@
         <v>9.9749999999999996</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
       <c r="B42" s="2" t="s">
         <v>6</v>
       </c>
@@ -1239,7 +1359,10 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
       <c r="B43" s="2" t="s">
         <v>6</v>
       </c>
@@ -1258,7 +1381,10 @@
         <v>99.75</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
       <c r="B44" s="2" t="s">
         <v>6</v>
       </c>
@@ -1277,7 +1403,10 @@
         <v>199.5</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
       <c r="B45" s="2" t="s">
         <v>6</v>
       </c>
@@ -1296,7 +1425,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1315,7 +1447,10 @@
         <v>4.9874999999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
       <c r="B47" s="2" t="s">
         <v>6</v>
       </c>
@@ -1334,7 +1469,10 @@
         <v>9.9749999999999996</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
       <c r="B48" s="2" t="s">
         <v>6</v>
       </c>
@@ -1353,7 +1491,10 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
       <c r="B49" s="2" t="s">
         <v>6</v>
       </c>
@@ -1372,7 +1513,10 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
@@ -1391,7 +1535,10 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
       <c r="B51" s="2" t="s">
         <v>6</v>
       </c>
@@ -1410,7 +1557,10 @@
         <v>159.6</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
       <c r="B52" s="2" t="s">
         <v>6</v>
       </c>
@@ -1429,7 +1579,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -1448,7 +1601,10 @@
         <v>9.9749999999999996</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
       <c r="B54" s="2" t="s">
         <v>6</v>
       </c>
@@ -1467,7 +1623,10 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
       <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
@@ -1486,7 +1645,10 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
       <c r="B56" s="2" t="s">
         <v>6</v>
       </c>
@@ -1505,7 +1667,10 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
       <c r="B57" s="2" t="s">
         <v>6</v>
       </c>
@@ -1524,7 +1689,10 @@
         <v>159.6</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
       <c r="B58" s="2" t="s">
         <v>6</v>
       </c>
@@ -1543,7 +1711,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
       <c r="B59" s="2" t="s">
         <v>6</v>
       </c>
@@ -1562,7 +1733,10 @@
         <v>9.9749999999999996</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -1581,7 +1755,10 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
       <c r="B61" s="2" t="s">
         <v>6</v>
       </c>
@@ -1600,7 +1777,10 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
       <c r="B62" s="2" t="s">
         <v>6</v>
       </c>
@@ -1619,7 +1799,10 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
       <c r="B63" s="2" t="s">
         <v>6</v>
       </c>
@@ -1638,7 +1821,10 @@
         <v>159.6</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
       <c r="B64" s="2" t="s">
         <v>6</v>
       </c>
@@ -1657,7 +1843,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
       <c r="B65" s="2" t="s">
         <v>6</v>
       </c>
@@ -1676,7 +1865,10 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
       <c r="B66" s="2" t="s">
         <v>6</v>
       </c>
@@ -1695,7 +1887,10 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
@@ -1714,7 +1909,10 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
       <c r="B68" s="2" t="s">
         <v>6</v>
       </c>
@@ -1733,7 +1931,10 @@
         <v>159.6</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
       <c r="B69" s="2" t="s">
         <v>6</v>
       </c>
@@ -1752,7 +1953,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
       <c r="B70" s="2" t="s">
         <v>6</v>
       </c>
@@ -1771,7 +1975,10 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
       <c r="B71" s="2" t="s">
         <v>6</v>
       </c>
@@ -1790,7 +1997,10 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
       <c r="B72" s="2" t="s">
         <v>6</v>
       </c>
@@ -1809,7 +2019,10 @@
         <v>159.6</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
       <c r="B73" s="2" t="s">
         <v>6</v>
       </c>
@@ -1828,7 +2041,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
@@ -1847,7 +2063,10 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
       <c r="B75" s="2" t="s">
         <v>6</v>
       </c>
@@ -1866,7 +2085,10 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
       <c r="B76" s="2" t="s">
         <v>6</v>
       </c>
@@ -1885,7 +2107,10 @@
         <v>159.6</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
       <c r="B77" s="2" t="s">
         <v>6</v>
       </c>
@@ -1904,7 +2129,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
       <c r="B78" s="2" t="s">
         <v>6</v>
       </c>
@@ -1923,7 +2151,10 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
       <c r="B79" s="2" t="s">
         <v>6</v>
       </c>
@@ -1942,7 +2173,10 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
       <c r="B80" s="2" t="s">
         <v>6</v>
       </c>
@@ -1961,7 +2195,10 @@
         <v>159.6</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
@@ -1980,7 +2217,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
       <c r="B82" s="2" t="s">
         <v>6</v>
       </c>
@@ -1999,7 +2239,10 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
       <c r="B83" s="2" t="s">
         <v>6</v>
       </c>
@@ -2018,7 +2261,10 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
       <c r="B84" s="2" t="s">
         <v>6</v>
       </c>
@@ -2037,7 +2283,10 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
       <c r="B85" s="2" t="s">
         <v>6</v>
       </c>
@@ -2056,7 +2305,10 @@
         <v>159.6</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
       <c r="B86" s="2" t="s">
         <v>6</v>
       </c>
@@ -2075,7 +2327,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
       <c r="B87" s="2" t="s">
         <v>6</v>
       </c>
@@ -2094,7 +2349,10 @@
         <v>49.875</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
       <c r="B88" s="2" t="s">
         <v>6</v>
       </c>
@@ -2113,7 +2371,10 @@
         <v>59.85</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
       <c r="B89" s="2" t="s">
         <v>6</v>
       </c>
@@ -2132,7 +2393,10 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
       <c r="B90" s="2" t="s">
         <v>6</v>
       </c>
@@ -2151,7 +2415,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
       <c r="B91" s="2" t="s">
         <v>6</v>
       </c>
@@ -2170,7 +2437,10 @@
         <v>49.875</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
       <c r="B92" s="2" t="s">
         <v>6</v>
       </c>
@@ -2189,7 +2459,10 @@
         <v>59.85</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
       <c r="B93" s="2" t="s">
         <v>6</v>
       </c>
@@ -2208,7 +2481,10 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
       <c r="B94" s="2" t="s">
         <v>6</v>
       </c>
@@ -2227,7 +2503,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
       <c r="B95" s="2" t="s">
         <v>6</v>
       </c>
@@ -2246,7 +2525,10 @@
         <v>49.875</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
       <c r="B96" s="2" t="s">
         <v>6</v>
       </c>
@@ -2265,7 +2547,10 @@
         <v>59.85</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
       <c r="B97" s="2" t="s">
         <v>6</v>
       </c>
@@ -2284,7 +2569,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
       <c r="B98" s="2" t="s">
         <v>6</v>
       </c>
@@ -2303,7 +2591,10 @@
         <v>44.887500000000003</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
       <c r="B99" s="2" t="s">
         <v>6</v>
       </c>
@@ -2322,7 +2613,10 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
       <c r="B100" s="2" t="s">
         <v>6</v>
       </c>
@@ -2341,7 +2635,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
       <c r="B101" s="2" t="s">
         <v>6</v>
       </c>
@@ -2360,7 +2657,10 @@
         <v>44.887500000000003</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
       <c r="B102" s="2" t="s">
         <v>6</v>
       </c>
@@ -2379,7 +2679,10 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
       <c r="B103" s="2" t="s">
         <v>6</v>
       </c>
@@ -2398,7 +2701,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
       <c r="B104" s="2" t="s">
         <v>6</v>
       </c>
@@ -2417,7 +2723,10 @@
         <v>44.887500000000003</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
       <c r="B105" s="2" t="s">
         <v>6</v>
       </c>
@@ -2436,7 +2745,10 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
       <c r="B106" s="2" t="s">
         <v>6</v>
       </c>
@@ -2455,7 +2767,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>4</v>
+      </c>
       <c r="B107" s="2" t="s">
         <v>6</v>
       </c>
@@ -2474,7 +2789,10 @@
         <v>44.887500000000003</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>4</v>
+      </c>
       <c r="B108" s="2" t="s">
         <v>6</v>
       </c>
@@ -2493,7 +2811,10 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
       <c r="B109" s="2" t="s">
         <v>1</v>
       </c>
@@ -2512,7 +2833,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
       <c r="B110" s="2" t="s">
         <v>1</v>
       </c>
@@ -2531,7 +2855,10 @@
         <v>9.9749999999999991E-2</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
       <c r="B111" s="2" t="s">
         <v>1</v>
       </c>
@@ -2550,7 +2877,10 @@
         <v>0.49875000000000003</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>4</v>
+      </c>
       <c r="B112" s="2" t="s">
         <v>1</v>
       </c>
@@ -2569,7 +2899,10 @@
         <v>0.99750000000000005</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
       <c r="B113" s="2" t="s">
         <v>1</v>
       </c>
@@ -2588,7 +2921,10 @@
         <v>4.9874999999999998</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
       <c r="B114" s="2" t="s">
         <v>1</v>
       </c>
@@ -2607,7 +2943,10 @@
         <v>9.9749999999999996</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
       <c r="B115" s="2" t="s">
         <v>1</v>
       </c>
@@ -2626,7 +2965,10 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
       <c r="B116" s="2" t="s">
         <v>1</v>
       </c>
@@ -2645,7 +2987,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
       <c r="B117" s="2" t="s">
         <v>1</v>
       </c>
@@ -2664,7 +3009,10 @@
         <v>9.9749999999999991E-2</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
       <c r="B118" s="2" t="s">
         <v>1</v>
       </c>
@@ -2683,7 +3031,10 @@
         <v>0.49875000000000003</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
       <c r="B119" s="2" t="s">
         <v>1</v>
       </c>
@@ -2702,7 +3053,10 @@
         <v>0.99750000000000005</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>4</v>
+      </c>
       <c r="B120" s="2" t="s">
         <v>1</v>
       </c>
@@ -2721,7 +3075,10 @@
         <v>1.9950000000000001</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
       <c r="B121" s="2" t="s">
         <v>1</v>
       </c>
@@ -2740,7 +3097,10 @@
         <v>4.9874999999999998</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>4</v>
+      </c>
       <c r="B122" s="2" t="s">
         <v>1</v>
       </c>
@@ -2759,7 +3119,10 @@
         <v>9.9749999999999996</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
       <c r="B123" s="2" t="s">
         <v>1</v>
       </c>
@@ -2778,7 +3141,10 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
       <c r="B124" s="2" t="s">
         <v>1</v>
       </c>
@@ -2797,7 +3163,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>4</v>
+      </c>
       <c r="B125" s="2" t="s">
         <v>1</v>
       </c>
@@ -2816,7 +3185,10 @@
         <v>0.49875000000000003</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
       <c r="B126" s="2" t="s">
         <v>1</v>
       </c>
@@ -2835,7 +3207,10 @@
         <v>0.49875000000000003</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
       <c r="B127" s="2" t="s">
         <v>1</v>
       </c>
@@ -2854,7 +3229,10 @@
         <v>0.99750000000000005</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>4</v>
+      </c>
       <c r="B128" s="2" t="s">
         <v>1</v>
       </c>
@@ -2873,7 +3251,10 @@
         <v>1.9950000000000001</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>4</v>
+      </c>
       <c r="B129" s="2" t="s">
         <v>1</v>
       </c>
@@ -2892,7 +3273,10 @@
         <v>4.9874999999999998</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>4</v>
+      </c>
       <c r="B130" s="2" t="s">
         <v>1</v>
       </c>
@@ -2911,7 +3295,10 @@
         <v>9.9749999999999996</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>4</v>
+      </c>
       <c r="B131" s="2" t="s">
         <v>1</v>
       </c>
@@ -2930,7 +3317,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>4</v>
+      </c>
       <c r="B132" s="2" t="s">
         <v>1</v>
       </c>
@@ -2949,7 +3339,10 @@
         <v>9.9749999999999991E-2</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>4</v>
+      </c>
       <c r="B133" s="2" t="s">
         <v>1</v>
       </c>
@@ -2968,7 +3361,10 @@
         <v>0.49875000000000003</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>4</v>
+      </c>
       <c r="B134" s="2" t="s">
         <v>1</v>
       </c>
@@ -2987,7 +3383,10 @@
         <v>0.99750000000000005</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
       <c r="B135" s="2" t="s">
         <v>1</v>
       </c>
@@ -3006,7 +3405,10 @@
         <v>1.9950000000000001</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
       <c r="B136" s="2" t="s">
         <v>1</v>
       </c>
@@ -3025,7 +3427,10 @@
         <v>4.9874999999999998</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>4</v>
+      </c>
       <c r="B137" s="2" t="s">
         <v>1</v>
       </c>
@@ -3044,7 +3449,10 @@
         <v>9.9749999999999996</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
       <c r="B138" s="2" t="s">
         <v>1</v>
       </c>
@@ -3063,7 +3471,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>4</v>
+      </c>
       <c r="B139" s="2" t="s">
         <v>1</v>
       </c>
@@ -3082,7 +3493,10 @@
         <v>9.9749999999999991E-2</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>4</v>
+      </c>
       <c r="B140" s="2" t="s">
         <v>1</v>
       </c>
@@ -3101,7 +3515,10 @@
         <v>0.49875000000000003</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>4</v>
+      </c>
       <c r="B141" s="2" t="s">
         <v>1</v>
       </c>
@@ -3120,7 +3537,10 @@
         <v>0.99750000000000005</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>4</v>
+      </c>
       <c r="B142" s="2" t="s">
         <v>1</v>
       </c>
@@ -3139,7 +3559,10 @@
         <v>1.9950000000000001</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>4</v>
+      </c>
       <c r="B143" s="2" t="s">
         <v>1</v>
       </c>
@@ -3158,7 +3581,10 @@
         <v>4.9874999999999998</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>4</v>
+      </c>
       <c r="B144" s="2" t="s">
         <v>1</v>
       </c>
